--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251113_201600.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251113_201600.xlsx
@@ -4473,7 +4473,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
